--- a/cashflow.xlsx
+++ b/cashflow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eren/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eren\Desktop\Projects\discounted_cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0C6DD7-98F6-5847-B21C-413868FDED8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813CD8E7-A535-426B-870E-B1AA051385A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="3" r:id="rId1"/>
@@ -36,9 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="5">
   <si>
     <t>CF_Pattern</t>
+  </si>
+  <si>
+    <t>UoA</t>
+  </si>
+  <si>
+    <t>uoa1</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>uoa2</t>
   </si>
 </sst>
 </file>
@@ -359,42 +371,3983 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344448C0-5813-EF41-B935-311A4303076B}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="A361" sqref="A182:A361"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>0.2</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+      <c r="C153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+      <c r="C155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>2</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+      <c r="C158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+      <c r="C159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+      <c r="C160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+      <c r="C161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>2</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="C164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>2</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
+      <c r="C165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>2</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
+      <c r="C166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>2</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
+      <c r="C167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>2</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
+      <c r="C169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>2</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
+      <c r="C170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>2</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+      <c r="C171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>2</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+      <c r="C172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="C173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>2</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+      <c r="C174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>2</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+      <c r="C175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+      <c r="C176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
+      <c r="C177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
+      <c r="C178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
+      <c r="C179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>2</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+      <c r="C180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>2</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+      <c r="C181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <v>5</v>
+      </c>
+      <c r="C186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187">
+        <v>6</v>
+      </c>
+      <c r="C187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188">
+        <v>7</v>
+      </c>
+      <c r="C188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189">
+        <v>8</v>
+      </c>
+      <c r="C189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190">
+        <v>9</v>
+      </c>
+      <c r="C190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191">
+        <v>10</v>
+      </c>
+      <c r="C191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192">
+        <v>11</v>
+      </c>
+      <c r="C192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193">
+        <v>12</v>
+      </c>
+      <c r="C193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194">
+        <v>13</v>
+      </c>
+      <c r="C194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195">
+        <v>14</v>
+      </c>
+      <c r="C195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196">
+        <v>15</v>
+      </c>
+      <c r="C196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197">
+        <v>16</v>
+      </c>
+      <c r="C197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198">
+        <v>17</v>
+      </c>
+      <c r="C198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199">
+        <v>18</v>
+      </c>
+      <c r="C199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200">
+        <v>19</v>
+      </c>
+      <c r="C200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201">
+        <v>20</v>
+      </c>
+      <c r="C201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202">
+        <v>21</v>
+      </c>
+      <c r="C202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203">
+        <v>22</v>
+      </c>
+      <c r="C203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204">
+        <v>23</v>
+      </c>
+      <c r="C204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205">
+        <v>24</v>
+      </c>
+      <c r="C205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206">
+        <v>25</v>
+      </c>
+      <c r="C206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207">
+        <v>26</v>
+      </c>
+      <c r="C207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208">
+        <v>27</v>
+      </c>
+      <c r="C208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209">
+        <v>28</v>
+      </c>
+      <c r="C209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210">
+        <v>29</v>
+      </c>
+      <c r="C210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211">
+        <v>30</v>
+      </c>
+      <c r="C211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212">
+        <v>31</v>
+      </c>
+      <c r="C212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213">
+        <v>32</v>
+      </c>
+      <c r="C213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214">
+        <v>33</v>
+      </c>
+      <c r="C214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>4</v>
+      </c>
+      <c r="B215">
+        <v>34</v>
+      </c>
+      <c r="C215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216">
+        <v>35</v>
+      </c>
+      <c r="C216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217">
+        <v>36</v>
+      </c>
+      <c r="C217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218">
+        <v>37</v>
+      </c>
+      <c r="C218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219">
+        <v>38</v>
+      </c>
+      <c r="C219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220">
+        <v>39</v>
+      </c>
+      <c r="C220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221">
+        <v>40</v>
+      </c>
+      <c r="C221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>4</v>
+      </c>
+      <c r="B222">
+        <v>41</v>
+      </c>
+      <c r="C222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B223">
+        <v>42</v>
+      </c>
+      <c r="C223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>4</v>
+      </c>
+      <c r="B224">
+        <v>43</v>
+      </c>
+      <c r="C224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225">
+        <v>44</v>
+      </c>
+      <c r="C225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226">
+        <v>45</v>
+      </c>
+      <c r="C226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>4</v>
+      </c>
+      <c r="B227">
+        <v>46</v>
+      </c>
+      <c r="C227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>4</v>
+      </c>
+      <c r="B228">
+        <v>47</v>
+      </c>
+      <c r="C228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>4</v>
+      </c>
+      <c r="B229">
+        <v>48</v>
+      </c>
+      <c r="C229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>4</v>
+      </c>
+      <c r="B230">
+        <v>49</v>
+      </c>
+      <c r="C230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>4</v>
+      </c>
+      <c r="B231">
+        <v>50</v>
+      </c>
+      <c r="C231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232">
+        <v>51</v>
+      </c>
+      <c r="C232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>4</v>
+      </c>
+      <c r="B233">
+        <v>52</v>
+      </c>
+      <c r="C233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>4</v>
+      </c>
+      <c r="B234">
+        <v>53</v>
+      </c>
+      <c r="C234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>4</v>
+      </c>
+      <c r="B235">
+        <v>54</v>
+      </c>
+      <c r="C235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>4</v>
+      </c>
+      <c r="B236">
+        <v>55</v>
+      </c>
+      <c r="C236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237">
+        <v>56</v>
+      </c>
+      <c r="C237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B238">
+        <v>57</v>
+      </c>
+      <c r="C238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239">
+        <v>58</v>
+      </c>
+      <c r="C239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240">
+        <v>59</v>
+      </c>
+      <c r="C240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>4</v>
+      </c>
+      <c r="B241">
+        <v>60</v>
+      </c>
+      <c r="C241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>4</v>
+      </c>
+      <c r="B242">
+        <v>61</v>
+      </c>
+      <c r="C242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>4</v>
+      </c>
+      <c r="B243">
+        <v>62</v>
+      </c>
+      <c r="C243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>4</v>
+      </c>
+      <c r="B244">
+        <v>63</v>
+      </c>
+      <c r="C244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>4</v>
+      </c>
+      <c r="B245">
+        <v>64</v>
+      </c>
+      <c r="C245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>4</v>
+      </c>
+      <c r="B246">
+        <v>65</v>
+      </c>
+      <c r="C246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B247">
+        <v>66</v>
+      </c>
+      <c r="C247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>4</v>
+      </c>
+      <c r="B248">
+        <v>67</v>
+      </c>
+      <c r="C248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>4</v>
+      </c>
+      <c r="B249">
+        <v>68</v>
+      </c>
+      <c r="C249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B250">
+        <v>69</v>
+      </c>
+      <c r="C250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>4</v>
+      </c>
+      <c r="B251">
+        <v>70</v>
+      </c>
+      <c r="C251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252">
+        <v>71</v>
+      </c>
+      <c r="C252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B253">
+        <v>72</v>
+      </c>
+      <c r="C253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B254">
+        <v>73</v>
+      </c>
+      <c r="C254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>4</v>
+      </c>
+      <c r="B255">
+        <v>74</v>
+      </c>
+      <c r="C255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>4</v>
+      </c>
+      <c r="B256">
+        <v>75</v>
+      </c>
+      <c r="C256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257">
+        <v>76</v>
+      </c>
+      <c r="C257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258">
+        <v>77</v>
+      </c>
+      <c r="C258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B259">
+        <v>78</v>
+      </c>
+      <c r="C259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>4</v>
+      </c>
+      <c r="B260">
+        <v>79</v>
+      </c>
+      <c r="C260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261">
+        <v>80</v>
+      </c>
+      <c r="C261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262">
+        <v>81</v>
+      </c>
+      <c r="C262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>4</v>
+      </c>
+      <c r="B263">
+        <v>82</v>
+      </c>
+      <c r="C263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>4</v>
+      </c>
+      <c r="B264">
+        <v>83</v>
+      </c>
+      <c r="C264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>4</v>
+      </c>
+      <c r="B265">
+        <v>84</v>
+      </c>
+      <c r="C265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>4</v>
+      </c>
+      <c r="B266">
+        <v>85</v>
+      </c>
+      <c r="C266" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>4</v>
+      </c>
+      <c r="B267">
+        <v>86</v>
+      </c>
+      <c r="C267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268">
+        <v>87</v>
+      </c>
+      <c r="C268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>4</v>
+      </c>
+      <c r="B269">
+        <v>88</v>
+      </c>
+      <c r="C269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>4</v>
+      </c>
+      <c r="B270">
+        <v>89</v>
+      </c>
+      <c r="C270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>4</v>
+      </c>
+      <c r="B271">
+        <v>90</v>
+      </c>
+      <c r="C271" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>4</v>
+      </c>
+      <c r="B272">
+        <v>91</v>
+      </c>
+      <c r="C272" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>4</v>
+      </c>
+      <c r="B273">
+        <v>92</v>
+      </c>
+      <c r="C273" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>4</v>
+      </c>
+      <c r="B274">
+        <v>93</v>
+      </c>
+      <c r="C274" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>4</v>
+      </c>
+      <c r="B275">
+        <v>94</v>
+      </c>
+      <c r="C275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>4</v>
+      </c>
+      <c r="B276">
+        <v>95</v>
+      </c>
+      <c r="C276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>4</v>
+      </c>
+      <c r="B277">
+        <v>96</v>
+      </c>
+      <c r="C277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>4</v>
+      </c>
+      <c r="B278">
+        <v>97</v>
+      </c>
+      <c r="C278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>4</v>
+      </c>
+      <c r="B279">
+        <v>98</v>
+      </c>
+      <c r="C279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>4</v>
+      </c>
+      <c r="B280">
+        <v>99</v>
+      </c>
+      <c r="C280" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>4</v>
+      </c>
+      <c r="B281">
+        <v>100</v>
+      </c>
+      <c r="C281" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>4</v>
+      </c>
+      <c r="B282">
+        <v>101</v>
+      </c>
+      <c r="C282" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>4</v>
+      </c>
+      <c r="B283">
+        <v>102</v>
+      </c>
+      <c r="C283" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>4</v>
+      </c>
+      <c r="B284">
+        <v>103</v>
+      </c>
+      <c r="C284" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>4</v>
+      </c>
+      <c r="B285">
+        <v>104</v>
+      </c>
+      <c r="C285" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>4</v>
+      </c>
+      <c r="B286">
+        <v>105</v>
+      </c>
+      <c r="C286" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>4</v>
+      </c>
+      <c r="B287">
+        <v>106</v>
+      </c>
+      <c r="C287" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>4</v>
+      </c>
+      <c r="B288">
+        <v>107</v>
+      </c>
+      <c r="C288" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>4</v>
+      </c>
+      <c r="B289">
+        <v>108</v>
+      </c>
+      <c r="C289" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>4</v>
+      </c>
+      <c r="B290">
+        <v>109</v>
+      </c>
+      <c r="C290" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>4</v>
+      </c>
+      <c r="B291">
+        <v>110</v>
+      </c>
+      <c r="C291" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>4</v>
+      </c>
+      <c r="B292">
+        <v>111</v>
+      </c>
+      <c r="C292" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>4</v>
+      </c>
+      <c r="B293">
+        <v>112</v>
+      </c>
+      <c r="C293" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>4</v>
+      </c>
+      <c r="B294">
+        <v>113</v>
+      </c>
+      <c r="C294" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>4</v>
+      </c>
+      <c r="B295">
+        <v>114</v>
+      </c>
+      <c r="C295" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>4</v>
+      </c>
+      <c r="B296">
+        <v>115</v>
+      </c>
+      <c r="C296" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>4</v>
+      </c>
+      <c r="B297">
+        <v>116</v>
+      </c>
+      <c r="C297" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>4</v>
+      </c>
+      <c r="B298">
+        <v>117</v>
+      </c>
+      <c r="C298" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>4</v>
+      </c>
+      <c r="B299">
+        <v>118</v>
+      </c>
+      <c r="C299" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>4</v>
+      </c>
+      <c r="B300">
+        <v>119</v>
+      </c>
+      <c r="C300" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>4</v>
+      </c>
+      <c r="B301">
+        <v>120</v>
+      </c>
+      <c r="C301" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>4</v>
+      </c>
+      <c r="B302">
+        <v>121</v>
+      </c>
+      <c r="C302" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>4</v>
+      </c>
+      <c r="B303">
+        <v>122</v>
+      </c>
+      <c r="C303" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>4</v>
+      </c>
+      <c r="B304">
+        <v>123</v>
+      </c>
+      <c r="C304" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>4</v>
+      </c>
+      <c r="B305">
+        <v>124</v>
+      </c>
+      <c r="C305" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>4</v>
+      </c>
+      <c r="B306">
+        <v>125</v>
+      </c>
+      <c r="C306" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>4</v>
+      </c>
+      <c r="B307">
+        <v>126</v>
+      </c>
+      <c r="C307" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>4</v>
+      </c>
+      <c r="B308">
+        <v>127</v>
+      </c>
+      <c r="C308" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>4</v>
+      </c>
+      <c r="B309">
+        <v>128</v>
+      </c>
+      <c r="C309" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>4</v>
+      </c>
+      <c r="B310">
+        <v>129</v>
+      </c>
+      <c r="C310" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>4</v>
+      </c>
+      <c r="B311">
+        <v>130</v>
+      </c>
+      <c r="C311" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>4</v>
+      </c>
+      <c r="B312">
+        <v>131</v>
+      </c>
+      <c r="C312" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>4</v>
+      </c>
+      <c r="B313">
+        <v>132</v>
+      </c>
+      <c r="C313" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>4</v>
+      </c>
+      <c r="B314">
+        <v>133</v>
+      </c>
+      <c r="C314" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>4</v>
+      </c>
+      <c r="B315">
+        <v>134</v>
+      </c>
+      <c r="C315" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>4</v>
+      </c>
+      <c r="B316">
+        <v>135</v>
+      </c>
+      <c r="C316" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>4</v>
+      </c>
+      <c r="B317">
+        <v>136</v>
+      </c>
+      <c r="C317" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>4</v>
+      </c>
+      <c r="B318">
+        <v>137</v>
+      </c>
+      <c r="C318" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>4</v>
+      </c>
+      <c r="B319">
+        <v>138</v>
+      </c>
+      <c r="C319" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>4</v>
+      </c>
+      <c r="B320">
+        <v>139</v>
+      </c>
+      <c r="C320" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>4</v>
+      </c>
+      <c r="B321">
+        <v>140</v>
+      </c>
+      <c r="C321" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>4</v>
+      </c>
+      <c r="B322">
+        <v>141</v>
+      </c>
+      <c r="C322" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>4</v>
+      </c>
+      <c r="B323">
+        <v>142</v>
+      </c>
+      <c r="C323" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>4</v>
+      </c>
+      <c r="B324">
+        <v>143</v>
+      </c>
+      <c r="C324" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>4</v>
+      </c>
+      <c r="B325">
+        <v>144</v>
+      </c>
+      <c r="C325" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>4</v>
+      </c>
+      <c r="B326">
+        <v>145</v>
+      </c>
+      <c r="C326" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>4</v>
+      </c>
+      <c r="B327">
+        <v>146</v>
+      </c>
+      <c r="C327" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>4</v>
+      </c>
+      <c r="B328">
+        <v>147</v>
+      </c>
+      <c r="C328" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>4</v>
+      </c>
+      <c r="B329">
+        <v>148</v>
+      </c>
+      <c r="C329" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>4</v>
+      </c>
+      <c r="B330">
+        <v>149</v>
+      </c>
+      <c r="C330" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>4</v>
+      </c>
+      <c r="B331">
+        <v>150</v>
+      </c>
+      <c r="C331" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>4</v>
+      </c>
+      <c r="B332">
+        <v>151</v>
+      </c>
+      <c r="C332" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>4</v>
+      </c>
+      <c r="B333">
+        <v>152</v>
+      </c>
+      <c r="C333" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>4</v>
+      </c>
+      <c r="B334">
+        <v>153</v>
+      </c>
+      <c r="C334" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>4</v>
+      </c>
+      <c r="B335">
+        <v>154</v>
+      </c>
+      <c r="C335" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>4</v>
+      </c>
+      <c r="B336">
+        <v>155</v>
+      </c>
+      <c r="C336" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>4</v>
+      </c>
+      <c r="B337">
+        <v>156</v>
+      </c>
+      <c r="C337" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>4</v>
+      </c>
+      <c r="B338">
+        <v>157</v>
+      </c>
+      <c r="C338" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>4</v>
+      </c>
+      <c r="B339">
+        <v>158</v>
+      </c>
+      <c r="C339" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>4</v>
+      </c>
+      <c r="B340">
+        <v>159</v>
+      </c>
+      <c r="C340" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>4</v>
+      </c>
+      <c r="B341">
+        <v>160</v>
+      </c>
+      <c r="C341" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>4</v>
+      </c>
+      <c r="B342">
+        <v>161</v>
+      </c>
+      <c r="C342" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>4</v>
+      </c>
+      <c r="B343">
+        <v>162</v>
+      </c>
+      <c r="C343" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>4</v>
+      </c>
+      <c r="B344">
+        <v>163</v>
+      </c>
+      <c r="C344" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>4</v>
+      </c>
+      <c r="B345">
+        <v>164</v>
+      </c>
+      <c r="C345" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>4</v>
+      </c>
+      <c r="B346">
+        <v>165</v>
+      </c>
+      <c r="C346" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>4</v>
+      </c>
+      <c r="B347">
+        <v>166</v>
+      </c>
+      <c r="C347" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>4</v>
+      </c>
+      <c r="B348">
+        <v>167</v>
+      </c>
+      <c r="C348" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>4</v>
+      </c>
+      <c r="B349">
+        <v>168</v>
+      </c>
+      <c r="C349" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>4</v>
+      </c>
+      <c r="B350">
+        <v>169</v>
+      </c>
+      <c r="C350" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>4</v>
+      </c>
+      <c r="B351">
+        <v>170</v>
+      </c>
+      <c r="C351" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>4</v>
+      </c>
+      <c r="B352">
+        <v>171</v>
+      </c>
+      <c r="C352" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>4</v>
+      </c>
+      <c r="B353">
+        <v>172</v>
+      </c>
+      <c r="C353" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>4</v>
+      </c>
+      <c r="B354">
+        <v>173</v>
+      </c>
+      <c r="C354" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>4</v>
+      </c>
+      <c r="B355">
+        <v>174</v>
+      </c>
+      <c r="C355" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>4</v>
+      </c>
+      <c r="B356">
+        <v>175</v>
+      </c>
+      <c r="C356" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>4</v>
+      </c>
+      <c r="B357">
+        <v>176</v>
+      </c>
+      <c r="C357" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B358">
+        <v>177</v>
+      </c>
+      <c r="C358" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>4</v>
+      </c>
+      <c r="B359">
+        <v>178</v>
+      </c>
+      <c r="C359" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>4</v>
+      </c>
+      <c r="B360">
+        <v>179</v>
+      </c>
+      <c r="C360" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>4</v>
+      </c>
+      <c r="B361">
+        <v>180</v>
+      </c>
+      <c r="C361" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/cashflow.xlsx
+++ b/cashflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eren\Desktop\Projects\discounted_cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813CD8E7-A535-426B-870E-B1AA051385A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC25C5A9-3AD1-46E6-A8B0-814DA8974F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="6">
   <si>
     <t>CF_Pattern</t>
   </si>
@@ -52,17 +52,31 @@
   <si>
     <t>uoa2</t>
   </si>
+  <si>
+    <t>uoa3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0.0000000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -83,17 +97,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{42C0E747-A9B9-4E4B-BE00-0B892878DE47}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -371,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344448C0-5813-EF41-B935-311A4303076B}">
-  <dimension ref="A1:C361"/>
+  <dimension ref="A1:C541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="A361" sqref="A182:A361"/>
+    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
+      <selection activeCell="B541" sqref="B541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4350,6 +4367,1986 @@
         <v>0</v>
       </c>
     </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>5</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362" s="2">
+        <v>7.0730184636575003E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>5</v>
+      </c>
+      <c r="B363">
+        <v>2</v>
+      </c>
+      <c r="C363" s="2">
+        <v>7.0730184636575003E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>5</v>
+      </c>
+      <c r="B364">
+        <v>3</v>
+      </c>
+      <c r="C364" s="2">
+        <v>7.0730184636575003E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>5</v>
+      </c>
+      <c r="B365">
+        <v>4</v>
+      </c>
+      <c r="C365" s="2">
+        <v>3.6128961537763397E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>5</v>
+      </c>
+      <c r="B366">
+        <v>5</v>
+      </c>
+      <c r="C366" s="2">
+        <v>3.6128961537763397E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>5</v>
+      </c>
+      <c r="B367">
+        <v>6</v>
+      </c>
+      <c r="C367" s="2">
+        <v>3.6128961537763397E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>5</v>
+      </c>
+      <c r="B368">
+        <v>7</v>
+      </c>
+      <c r="C368" s="2">
+        <v>2.9416633859655199E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>5</v>
+      </c>
+      <c r="B369">
+        <v>8</v>
+      </c>
+      <c r="C369" s="2">
+        <v>2.9416633859655199E-2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>5</v>
+      </c>
+      <c r="B370">
+        <v>9</v>
+      </c>
+      <c r="C370" s="2">
+        <v>2.9416633859655199E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>5</v>
+      </c>
+      <c r="B371">
+        <v>10</v>
+      </c>
+      <c r="C371" s="2">
+        <v>2.0522852300553899E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>5</v>
+      </c>
+      <c r="B372">
+        <v>11</v>
+      </c>
+      <c r="C372" s="2">
+        <v>2.0522852300553899E-2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>5</v>
+      </c>
+      <c r="B373">
+        <v>12</v>
+      </c>
+      <c r="C373" s="2">
+        <v>2.0522852300553899E-2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>5</v>
+      </c>
+      <c r="B374">
+        <v>13</v>
+      </c>
+      <c r="C374" s="2">
+        <v>1.6266770004303901E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>5</v>
+      </c>
+      <c r="B375">
+        <v>14</v>
+      </c>
+      <c r="C375" s="2">
+        <v>1.6266770004303901E-2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>5</v>
+      </c>
+      <c r="B376">
+        <v>15</v>
+      </c>
+      <c r="C376" s="2">
+        <v>1.6266770004303901E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>5</v>
+      </c>
+      <c r="B377">
+        <v>16</v>
+      </c>
+      <c r="C377" s="2">
+        <v>1.4524752527771899E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>5</v>
+      </c>
+      <c r="B378">
+        <v>17</v>
+      </c>
+      <c r="C378" s="2">
+        <v>1.4524752527771899E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>5</v>
+      </c>
+      <c r="B379">
+        <v>18</v>
+      </c>
+      <c r="C379" s="2">
+        <v>1.4524752527771899E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>5</v>
+      </c>
+      <c r="B380">
+        <v>19</v>
+      </c>
+      <c r="C380" s="2">
+        <v>1.28472100184836E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>5</v>
+      </c>
+      <c r="B381">
+        <v>20</v>
+      </c>
+      <c r="C381" s="2">
+        <v>1.28472100184836E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>5</v>
+      </c>
+      <c r="B382">
+        <v>21</v>
+      </c>
+      <c r="C382" s="2">
+        <v>1.28472100184836E-2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>5</v>
+      </c>
+      <c r="B383">
+        <v>22</v>
+      </c>
+      <c r="C383" s="2">
+        <v>1.115633927748E-2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>5</v>
+      </c>
+      <c r="B384">
+        <v>23</v>
+      </c>
+      <c r="C384" s="2">
+        <v>1.115633927748E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>5</v>
+      </c>
+      <c r="B385">
+        <v>24</v>
+      </c>
+      <c r="C385" s="2">
+        <v>1.115633927748E-2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>5</v>
+      </c>
+      <c r="B386">
+        <v>25</v>
+      </c>
+      <c r="C386" s="2">
+        <v>9.6936956712681491E-3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>5</v>
+      </c>
+      <c r="B387">
+        <v>26</v>
+      </c>
+      <c r="C387" s="2">
+        <v>9.6936956712681491E-3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>5</v>
+      </c>
+      <c r="B388">
+        <v>27</v>
+      </c>
+      <c r="C388" s="2">
+        <v>9.6936956712681491E-3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>5</v>
+      </c>
+      <c r="B389">
+        <v>28</v>
+      </c>
+      <c r="C389" s="2">
+        <v>9.42024591810698E-3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>5</v>
+      </c>
+      <c r="B390">
+        <v>29</v>
+      </c>
+      <c r="C390" s="2">
+        <v>9.42024591810698E-3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>5</v>
+      </c>
+      <c r="B391">
+        <v>30</v>
+      </c>
+      <c r="C391" s="2">
+        <v>9.42024591810698E-3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>5</v>
+      </c>
+      <c r="B392">
+        <v>31</v>
+      </c>
+      <c r="C392" s="2">
+        <v>8.4753767841546698E-3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>5</v>
+      </c>
+      <c r="B393">
+        <v>32</v>
+      </c>
+      <c r="C393" s="2">
+        <v>8.4753767841546698E-3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>5</v>
+      </c>
+      <c r="B394">
+        <v>33</v>
+      </c>
+      <c r="C394" s="2">
+        <v>8.4753767841546698E-3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>5</v>
+      </c>
+      <c r="B395">
+        <v>34</v>
+      </c>
+      <c r="C395" s="2">
+        <v>7.5067431958825599E-3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>5</v>
+      </c>
+      <c r="B396">
+        <v>35</v>
+      </c>
+      <c r="C396" s="2">
+        <v>7.5067431958825599E-3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>5</v>
+      </c>
+      <c r="B397">
+        <v>36</v>
+      </c>
+      <c r="C397" s="2">
+        <v>7.5067431958825599E-3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>5</v>
+      </c>
+      <c r="B398">
+        <v>37</v>
+      </c>
+      <c r="C398" s="2">
+        <v>7.0822119092970801E-3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>5</v>
+      </c>
+      <c r="B399">
+        <v>38</v>
+      </c>
+      <c r="C399" s="2">
+        <v>7.0822119092970801E-3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>5</v>
+      </c>
+      <c r="B400">
+        <v>39</v>
+      </c>
+      <c r="C400" s="2">
+        <v>7.0822119092970801E-3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>5</v>
+      </c>
+      <c r="B401">
+        <v>40</v>
+      </c>
+      <c r="C401" s="2">
+        <v>6.5087397882348796E-3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>5</v>
+      </c>
+      <c r="B402">
+        <v>41</v>
+      </c>
+      <c r="C402" s="2">
+        <v>6.5087397882348796E-3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>5</v>
+      </c>
+      <c r="B403">
+        <v>42</v>
+      </c>
+      <c r="C403" s="2">
+        <v>6.5087397882348796E-3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>5</v>
+      </c>
+      <c r="B404">
+        <v>43</v>
+      </c>
+      <c r="C404" s="2">
+        <v>6.0147442432207602E-3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>5</v>
+      </c>
+      <c r="B405">
+        <v>44</v>
+      </c>
+      <c r="C405" s="2">
+        <v>6.0147442432207602E-3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>5</v>
+      </c>
+      <c r="B406">
+        <v>45</v>
+      </c>
+      <c r="C406" s="2">
+        <v>6.0147442432207602E-3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>5</v>
+      </c>
+      <c r="B407">
+        <v>46</v>
+      </c>
+      <c r="C407" s="2">
+        <v>5.2181091354526199E-3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>5</v>
+      </c>
+      <c r="B408">
+        <v>47</v>
+      </c>
+      <c r="C408" s="2">
+        <v>5.2181091354526199E-3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>5</v>
+      </c>
+      <c r="B409">
+        <v>48</v>
+      </c>
+      <c r="C409" s="2">
+        <v>5.2181091354526199E-3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>5</v>
+      </c>
+      <c r="B410">
+        <v>49</v>
+      </c>
+      <c r="C410" s="2">
+        <v>4.6836661792603301E-3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>5</v>
+      </c>
+      <c r="B411">
+        <v>50</v>
+      </c>
+      <c r="C411" s="2">
+        <v>4.6836661792603301E-3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>5</v>
+      </c>
+      <c r="B412">
+        <v>51</v>
+      </c>
+      <c r="C412" s="2">
+        <v>4.6836661792603301E-3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>5</v>
+      </c>
+      <c r="B413">
+        <v>52</v>
+      </c>
+      <c r="C413" s="2">
+        <v>4.1829778106279598E-3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>5</v>
+      </c>
+      <c r="B414">
+        <v>53</v>
+      </c>
+      <c r="C414" s="2">
+        <v>4.1829778106279598E-3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>5</v>
+      </c>
+      <c r="B415">
+        <v>54</v>
+      </c>
+      <c r="C415" s="2">
+        <v>4.1829778106279598E-3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>5</v>
+      </c>
+      <c r="B416">
+        <v>55</v>
+      </c>
+      <c r="C416" s="2">
+        <v>4.0213806067856701E-3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>5</v>
+      </c>
+      <c r="B417">
+        <v>56</v>
+      </c>
+      <c r="C417" s="2">
+        <v>4.0213806067856701E-3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>5</v>
+      </c>
+      <c r="B418">
+        <v>57</v>
+      </c>
+      <c r="C418" s="2">
+        <v>4.0213806067856701E-3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>5</v>
+      </c>
+      <c r="B419">
+        <v>58</v>
+      </c>
+      <c r="C419" s="2">
+        <v>3.5489240836922898E-3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>5</v>
+      </c>
+      <c r="B420">
+        <v>59</v>
+      </c>
+      <c r="C420" s="2">
+        <v>3.5489240836922898E-3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>5</v>
+      </c>
+      <c r="B421">
+        <v>60</v>
+      </c>
+      <c r="C421" s="2">
+        <v>3.5489240836922898E-3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>5</v>
+      </c>
+      <c r="B422">
+        <v>61</v>
+      </c>
+      <c r="C422" s="2">
+        <v>3.2438363344860699E-3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>5</v>
+      </c>
+      <c r="B423">
+        <v>62</v>
+      </c>
+      <c r="C423" s="2">
+        <v>3.2438363344860699E-3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>5</v>
+      </c>
+      <c r="B424">
+        <v>63</v>
+      </c>
+      <c r="C424" s="2">
+        <v>3.2438363344860699E-3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>5</v>
+      </c>
+      <c r="B425">
+        <v>64</v>
+      </c>
+      <c r="C425" s="2">
+        <v>2.9617645565571701E-3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>5</v>
+      </c>
+      <c r="B426">
+        <v>65</v>
+      </c>
+      <c r="C426" s="2">
+        <v>2.9617645565571701E-3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>5</v>
+      </c>
+      <c r="B427">
+        <v>66</v>
+      </c>
+      <c r="C427" s="2">
+        <v>2.9617645565571701E-3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>5</v>
+      </c>
+      <c r="B428">
+        <v>67</v>
+      </c>
+      <c r="C428" s="2">
+        <v>2.8540178702850701E-3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>5</v>
+      </c>
+      <c r="B429">
+        <v>68</v>
+      </c>
+      <c r="C429" s="2">
+        <v>2.8540178702850701E-3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>5</v>
+      </c>
+      <c r="B430">
+        <v>69</v>
+      </c>
+      <c r="C430" s="2">
+        <v>2.8540178702850701E-3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>5</v>
+      </c>
+      <c r="B431">
+        <v>70</v>
+      </c>
+      <c r="C431" s="2">
+        <v>2.5387645782591201E-3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>5</v>
+      </c>
+      <c r="B432">
+        <v>71</v>
+      </c>
+      <c r="C432" s="2">
+        <v>2.5387645782591201E-3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>5</v>
+      </c>
+      <c r="B433">
+        <v>72</v>
+      </c>
+      <c r="C433" s="2">
+        <v>2.5387645782591201E-3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>5</v>
+      </c>
+      <c r="B434">
+        <v>73</v>
+      </c>
+      <c r="C434" s="2">
+        <v>2.5030051792937699E-3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>5</v>
+      </c>
+      <c r="B435">
+        <v>74</v>
+      </c>
+      <c r="C435" s="2">
+        <v>2.5030051792937699E-3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>5</v>
+      </c>
+      <c r="B436">
+        <v>75</v>
+      </c>
+      <c r="C436" s="2">
+        <v>2.5030051792937699E-3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>5</v>
+      </c>
+      <c r="B437">
+        <v>76</v>
+      </c>
+      <c r="C437" s="2">
+        <v>2.3216785317443098E-3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>5</v>
+      </c>
+      <c r="B438">
+        <v>77</v>
+      </c>
+      <c r="C438" s="2">
+        <v>2.3216785317443098E-3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>5</v>
+      </c>
+      <c r="B439">
+        <v>78</v>
+      </c>
+      <c r="C439" s="2">
+        <v>2.3216785317443098E-3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>5</v>
+      </c>
+      <c r="B440">
+        <v>79</v>
+      </c>
+      <c r="C440" s="2">
+        <v>2.09957120740961E-3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>5</v>
+      </c>
+      <c r="B441">
+        <v>80</v>
+      </c>
+      <c r="C441" s="2">
+        <v>2.09957120740961E-3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>5</v>
+      </c>
+      <c r="B442">
+        <v>81</v>
+      </c>
+      <c r="C442" s="2">
+        <v>2.09957120740961E-3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>5</v>
+      </c>
+      <c r="B443">
+        <v>82</v>
+      </c>
+      <c r="C443" s="2">
+        <v>1.8620000538135601E-3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>5</v>
+      </c>
+      <c r="B444">
+        <v>83</v>
+      </c>
+      <c r="C444" s="2">
+        <v>1.8620000538135601E-3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>5</v>
+      </c>
+      <c r="B445">
+        <v>84</v>
+      </c>
+      <c r="C445" s="2">
+        <v>1.8620000538135601E-3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>5</v>
+      </c>
+      <c r="B446">
+        <v>85</v>
+      </c>
+      <c r="C446" s="2">
+        <v>2.05300151340637E-3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>5</v>
+      </c>
+      <c r="B447">
+        <v>86</v>
+      </c>
+      <c r="C447" s="2">
+        <v>2.05300151340637E-3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>5</v>
+      </c>
+      <c r="B448">
+        <v>87</v>
+      </c>
+      <c r="C448" s="2">
+        <v>2.05300151340637E-3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>5</v>
+      </c>
+      <c r="B449">
+        <v>88</v>
+      </c>
+      <c r="C449" s="2">
+        <v>1.7162115042286799E-3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>5</v>
+      </c>
+      <c r="B450">
+        <v>89</v>
+      </c>
+      <c r="C450" s="2">
+        <v>1.7162115042286799E-3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>5</v>
+      </c>
+      <c r="B451">
+        <v>90</v>
+      </c>
+      <c r="C451" s="2">
+        <v>1.7162115042286799E-3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>5</v>
+      </c>
+      <c r="B452">
+        <v>91</v>
+      </c>
+      <c r="C452" s="2">
+        <v>1.5332610392057801E-3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>5</v>
+      </c>
+      <c r="B453">
+        <v>92</v>
+      </c>
+      <c r="C453" s="2">
+        <v>1.5332610392057801E-3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>5</v>
+      </c>
+      <c r="B454">
+        <v>93</v>
+      </c>
+      <c r="C454" s="2">
+        <v>1.5332610392057801E-3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>5</v>
+      </c>
+      <c r="B455">
+        <v>94</v>
+      </c>
+      <c r="C455" s="2">
+        <v>1.4566377174470299E-3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>5</v>
+      </c>
+      <c r="B456">
+        <v>95</v>
+      </c>
+      <c r="C456" s="2">
+        <v>1.4566377174470299E-3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>5</v>
+      </c>
+      <c r="B457">
+        <v>96</v>
+      </c>
+      <c r="C457" s="2">
+        <v>1.4566377174470299E-3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>5</v>
+      </c>
+      <c r="B458">
+        <v>97</v>
+      </c>
+      <c r="C458" s="2">
+        <v>1.5752269428709999E-3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>5</v>
+      </c>
+      <c r="B459">
+        <v>98</v>
+      </c>
+      <c r="C459" s="2">
+        <v>1.5752269428709999E-3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>5</v>
+      </c>
+      <c r="B460">
+        <v>99</v>
+      </c>
+      <c r="C460" s="2">
+        <v>1.5752269428709999E-3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>5</v>
+      </c>
+      <c r="B461">
+        <v>100</v>
+      </c>
+      <c r="C461" s="2">
+        <v>1.30144748195569E-3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>5</v>
+      </c>
+      <c r="B462">
+        <v>101</v>
+      </c>
+      <c r="C462" s="2">
+        <v>1.30144748195569E-3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>5</v>
+      </c>
+      <c r="B463">
+        <v>102</v>
+      </c>
+      <c r="C463" s="2">
+        <v>1.30144748195569E-3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>5</v>
+      </c>
+      <c r="B464">
+        <v>103</v>
+      </c>
+      <c r="C464" s="2">
+        <v>1.25614827067349E-3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>5</v>
+      </c>
+      <c r="B465">
+        <v>104</v>
+      </c>
+      <c r="C465" s="2">
+        <v>1.25614827067349E-3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>5</v>
+      </c>
+      <c r="B466">
+        <v>105</v>
+      </c>
+      <c r="C466" s="2">
+        <v>1.25614827067349E-3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>5</v>
+      </c>
+      <c r="B467">
+        <v>106</v>
+      </c>
+      <c r="C467" s="2">
+        <v>1.1100945338723099E-3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>5</v>
+      </c>
+      <c r="B468">
+        <v>107</v>
+      </c>
+      <c r="C468" s="2">
+        <v>1.1100945338723099E-3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>5</v>
+      </c>
+      <c r="B469">
+        <v>108</v>
+      </c>
+      <c r="C469" s="2">
+        <v>1.1100945338723099E-3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>5</v>
+      </c>
+      <c r="B470">
+        <v>109</v>
+      </c>
+      <c r="C470" s="2">
+        <v>1.1934314361155801E-3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>5</v>
+      </c>
+      <c r="B471">
+        <v>110</v>
+      </c>
+      <c r="C471" s="2">
+        <v>1.1934314361155801E-3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>5</v>
+      </c>
+      <c r="B472">
+        <v>111</v>
+      </c>
+      <c r="C472" s="2">
+        <v>1.1934314361155801E-3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>5</v>
+      </c>
+      <c r="B473">
+        <v>112</v>
+      </c>
+      <c r="C473" s="2">
+        <v>1.0280346877581199E-3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>5</v>
+      </c>
+      <c r="B474">
+        <v>113</v>
+      </c>
+      <c r="C474" s="2">
+        <v>1.0280346877581199E-3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>5</v>
+      </c>
+      <c r="B475">
+        <v>114</v>
+      </c>
+      <c r="C475" s="2">
+        <v>1.0280346877581199E-3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>5</v>
+      </c>
+      <c r="B476">
+        <v>115</v>
+      </c>
+      <c r="C476" s="2">
+        <v>9.997753173697989E-4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>5</v>
+      </c>
+      <c r="B477">
+        <v>116</v>
+      </c>
+      <c r="C477" s="2">
+        <v>9.997753173697989E-4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>5</v>
+      </c>
+      <c r="B478">
+        <v>117</v>
+      </c>
+      <c r="C478" s="2">
+        <v>9.997753173697989E-4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>5</v>
+      </c>
+      <c r="B479">
+        <v>118</v>
+      </c>
+      <c r="C479" s="2">
+        <v>8.6457073858659504E-4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>5</v>
+      </c>
+      <c r="B480">
+        <v>119</v>
+      </c>
+      <c r="C480" s="2">
+        <v>8.6457073858659504E-4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>5</v>
+      </c>
+      <c r="B481">
+        <v>120</v>
+      </c>
+      <c r="C481" s="2">
+        <v>8.6457073858659504E-4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>5</v>
+      </c>
+      <c r="B482">
+        <v>121</v>
+      </c>
+      <c r="C482" s="2">
+        <v>9.5908831035226199E-4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>5</v>
+      </c>
+      <c r="B483">
+        <v>122</v>
+      </c>
+      <c r="C483" s="2">
+        <v>9.5908831035226199E-4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>5</v>
+      </c>
+      <c r="B484">
+        <v>123</v>
+      </c>
+      <c r="C484" s="2">
+        <v>9.5908831035226199E-4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>5</v>
+      </c>
+      <c r="B485">
+        <v>124</v>
+      </c>
+      <c r="C485" s="2">
+        <v>7.8992258062707699E-4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>5</v>
+      </c>
+      <c r="B486">
+        <v>125</v>
+      </c>
+      <c r="C486" s="2">
+        <v>7.8992258062707699E-4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>5</v>
+      </c>
+      <c r="B487">
+        <v>126</v>
+      </c>
+      <c r="C487" s="2">
+        <v>7.8992258062707699E-4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>5</v>
+      </c>
+      <c r="B488">
+        <v>127</v>
+      </c>
+      <c r="C488" s="2">
+        <v>8.0106072463542602E-4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>5</v>
+      </c>
+      <c r="B489">
+        <v>128</v>
+      </c>
+      <c r="C489" s="2">
+        <v>8.0106072463542602E-4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>5</v>
+      </c>
+      <c r="B490">
+        <v>129</v>
+      </c>
+      <c r="C490" s="2">
+        <v>8.0106072463542602E-4</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>5</v>
+      </c>
+      <c r="B491">
+        <v>130</v>
+      </c>
+      <c r="C491" s="2">
+        <v>6.400948936611E-4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>5</v>
+      </c>
+      <c r="B492">
+        <v>131</v>
+      </c>
+      <c r="C492" s="2">
+        <v>6.400948936611E-4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>5</v>
+      </c>
+      <c r="B493">
+        <v>132</v>
+      </c>
+      <c r="C493" s="2">
+        <v>6.400948936611E-4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>5</v>
+      </c>
+      <c r="B494">
+        <v>133</v>
+      </c>
+      <c r="C494" s="2">
+        <v>6.8728722131565598E-4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>5</v>
+      </c>
+      <c r="B495">
+        <v>134</v>
+      </c>
+      <c r="C495" s="2">
+        <v>6.8728722131565598E-4</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>5</v>
+      </c>
+      <c r="B496">
+        <v>135</v>
+      </c>
+      <c r="C496" s="2">
+        <v>6.8728722131565598E-4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>5</v>
+      </c>
+      <c r="B497">
+        <v>136</v>
+      </c>
+      <c r="C497" s="2">
+        <v>5.5585044104023698E-4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>5</v>
+      </c>
+      <c r="B498">
+        <v>137</v>
+      </c>
+      <c r="C498" s="2">
+        <v>5.5585044104023698E-4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>5</v>
+      </c>
+      <c r="B499">
+        <v>138</v>
+      </c>
+      <c r="C499" s="2">
+        <v>5.5585044104023698E-4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>5</v>
+      </c>
+      <c r="B500">
+        <v>139</v>
+      </c>
+      <c r="C500" s="2">
+        <v>5.7888923693714196E-4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>5</v>
+      </c>
+      <c r="B501">
+        <v>140</v>
+      </c>
+      <c r="C501" s="2">
+        <v>5.7888923693714196E-4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>5</v>
+      </c>
+      <c r="B502">
+        <v>141</v>
+      </c>
+      <c r="C502" s="2">
+        <v>5.7888923693714196E-4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>5</v>
+      </c>
+      <c r="B503">
+        <v>142</v>
+      </c>
+      <c r="C503" s="2">
+        <v>4.50906510517317E-4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>5</v>
+      </c>
+      <c r="B504">
+        <v>143</v>
+      </c>
+      <c r="C504" s="2">
+        <v>4.50906510517317E-4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>5</v>
+      </c>
+      <c r="B505">
+        <v>144</v>
+      </c>
+      <c r="C505" s="2">
+        <v>4.50906510517317E-4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>5</v>
+      </c>
+      <c r="B506">
+        <v>145</v>
+      </c>
+      <c r="C506" s="2">
+        <v>4.9737822663120798E-4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>5</v>
+      </c>
+      <c r="B507">
+        <v>146</v>
+      </c>
+      <c r="C507" s="2">
+        <v>4.9737822663120798E-4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>5</v>
+      </c>
+      <c r="B508">
+        <v>147</v>
+      </c>
+      <c r="C508" s="2">
+        <v>4.9737822663120798E-4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>5</v>
+      </c>
+      <c r="B509">
+        <v>148</v>
+      </c>
+      <c r="C509" s="2">
+        <v>3.9961135035627499E-4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>5</v>
+      </c>
+      <c r="B510">
+        <v>149</v>
+      </c>
+      <c r="C510" s="2">
+        <v>3.9961135035627499E-4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>5</v>
+      </c>
+      <c r="B511">
+        <v>150</v>
+      </c>
+      <c r="C511" s="2">
+        <v>3.9961135035627499E-4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>5</v>
+      </c>
+      <c r="B512">
+        <v>151</v>
+      </c>
+      <c r="C512" s="2">
+        <v>4.2936121796954802E-4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>5</v>
+      </c>
+      <c r="B513">
+        <v>152</v>
+      </c>
+      <c r="C513" s="2">
+        <v>4.2936121796954802E-4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>5</v>
+      </c>
+      <c r="B514">
+        <v>153</v>
+      </c>
+      <c r="C514" s="2">
+        <v>4.2936121796954802E-4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>5</v>
+      </c>
+      <c r="B515">
+        <v>154</v>
+      </c>
+      <c r="C515" s="2">
+        <v>3.0766254890528E-4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>5</v>
+      </c>
+      <c r="B516">
+        <v>155</v>
+      </c>
+      <c r="C516" s="2">
+        <v>3.0766254890528E-4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>5</v>
+      </c>
+      <c r="B517">
+        <v>156</v>
+      </c>
+      <c r="C517" s="2">
+        <v>3.0766254890528E-4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>5</v>
+      </c>
+      <c r="B518">
+        <v>157</v>
+      </c>
+      <c r="C518" s="2">
+        <v>3.8911366051182998E-4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>5</v>
+      </c>
+      <c r="B519">
+        <v>158</v>
+      </c>
+      <c r="C519" s="2">
+        <v>3.8911366051182998E-4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>5</v>
+      </c>
+      <c r="B520">
+        <v>159</v>
+      </c>
+      <c r="C520" s="2">
+        <v>3.8911366051182998E-4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>5</v>
+      </c>
+      <c r="B521">
+        <v>160</v>
+      </c>
+      <c r="C521" s="2">
+        <v>2.8475831275072199E-4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>5</v>
+      </c>
+      <c r="B522">
+        <v>161</v>
+      </c>
+      <c r="C522" s="2">
+        <v>2.8475831275072199E-4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>5</v>
+      </c>
+      <c r="B523">
+        <v>162</v>
+      </c>
+      <c r="C523" s="2">
+        <v>2.8475831275072199E-4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>5</v>
+      </c>
+      <c r="B524">
+        <v>163</v>
+      </c>
+      <c r="C524" s="2">
+        <v>2.8963369512637201E-4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>5</v>
+      </c>
+      <c r="B525">
+        <v>164</v>
+      </c>
+      <c r="C525" s="2">
+        <v>2.8963369512637201E-4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>5</v>
+      </c>
+      <c r="B526">
+        <v>165</v>
+      </c>
+      <c r="C526" s="2">
+        <v>2.8963369512637201E-4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>5</v>
+      </c>
+      <c r="B527">
+        <v>166</v>
+      </c>
+      <c r="C527" s="2">
+        <v>1.9587503749029801E-4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>5</v>
+      </c>
+      <c r="B528">
+        <v>167</v>
+      </c>
+      <c r="C528" s="2">
+        <v>1.9587503749029801E-4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>5</v>
+      </c>
+      <c r="B529">
+        <v>168</v>
+      </c>
+      <c r="C529" s="2">
+        <v>1.9587503749029801E-4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>5</v>
+      </c>
+      <c r="B530">
+        <v>169</v>
+      </c>
+      <c r="C530" s="2">
+        <v>2.20278911090397E-4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>5</v>
+      </c>
+      <c r="B531">
+        <v>170</v>
+      </c>
+      <c r="C531" s="2">
+        <v>2.20278911090397E-4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>5</v>
+      </c>
+      <c r="B532">
+        <v>171</v>
+      </c>
+      <c r="C532" s="2">
+        <v>2.20278911090397E-4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>5</v>
+      </c>
+      <c r="B533">
+        <v>172</v>
+      </c>
+      <c r="C533" s="2">
+        <v>2.20278911090397E-4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>5</v>
+      </c>
+      <c r="B534">
+        <v>173</v>
+      </c>
+      <c r="C534" s="2">
+        <v>2.20278911090397E-4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>5</v>
+      </c>
+      <c r="B535">
+        <v>174</v>
+      </c>
+      <c r="C535" s="2">
+        <v>2.20278911090397E-4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>5</v>
+      </c>
+      <c r="B536">
+        <v>175</v>
+      </c>
+      <c r="C536" s="2">
+        <v>2.20278911090397E-4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>5</v>
+      </c>
+      <c r="B537">
+        <v>176</v>
+      </c>
+      <c r="C537" s="2">
+        <v>2.20278911090397E-4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>5</v>
+      </c>
+      <c r="B538">
+        <v>177</v>
+      </c>
+      <c r="C538" s="2">
+        <v>2.20278911090397E-4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>5</v>
+      </c>
+      <c r="B539">
+        <v>178</v>
+      </c>
+      <c r="C539" s="2">
+        <v>-6.9963526754997698E-6</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>5</v>
+      </c>
+      <c r="B540">
+        <v>179</v>
+      </c>
+      <c r="C540" s="2">
+        <v>-6.9963526754997698E-6</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>5</v>
+      </c>
+      <c r="B541">
+        <v>180</v>
+      </c>
+      <c r="C541" s="2">
+        <v>-6.9963526754997698E-6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cashflow.xlsx
+++ b/cashflow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eren\Desktop\Projects\discounted_cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eren\Desktop\Eren-Backup\Projects\discounted_cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC25C5A9-3AD1-46E6-A8B0-814DA8974F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB4557E-A3AC-4EEA-AFC2-490ACD14A33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="7">
   <si>
     <t>CF_Pattern</t>
   </si>
@@ -55,13 +55,16 @@
   <si>
     <t>uoa3</t>
   </si>
+  <si>
+    <t>uoa4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -106,7 +109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344448C0-5813-EF41-B935-311A4303076B}">
-  <dimension ref="A1:C541"/>
+  <dimension ref="A1:C721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
-      <selection activeCell="B541" sqref="B541"/>
+    <sheetView tabSelected="1" topLeftCell="A664" workbookViewId="0">
+      <selection activeCell="E668" sqref="E668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6347,6 +6350,1986 @@
         <v>-6.9963526754997698E-6</v>
       </c>
     </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>6</v>
+      </c>
+      <c r="B542">
+        <v>1</v>
+      </c>
+      <c r="C542" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>6</v>
+      </c>
+      <c r="B543">
+        <v>2</v>
+      </c>
+      <c r="C543" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>6</v>
+      </c>
+      <c r="B544">
+        <v>3</v>
+      </c>
+      <c r="C544" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>6</v>
+      </c>
+      <c r="B545">
+        <v>4</v>
+      </c>
+      <c r="C545" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>6</v>
+      </c>
+      <c r="B546">
+        <v>5</v>
+      </c>
+      <c r="C546" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>6</v>
+      </c>
+      <c r="B547">
+        <v>6</v>
+      </c>
+      <c r="C547" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>6</v>
+      </c>
+      <c r="B548">
+        <v>7</v>
+      </c>
+      <c r="C548" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>6</v>
+      </c>
+      <c r="B549">
+        <v>8</v>
+      </c>
+      <c r="C549" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>6</v>
+      </c>
+      <c r="B550">
+        <v>9</v>
+      </c>
+      <c r="C550" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>6</v>
+      </c>
+      <c r="B551">
+        <v>10</v>
+      </c>
+      <c r="C551" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>6</v>
+      </c>
+      <c r="B552">
+        <v>11</v>
+      </c>
+      <c r="C552" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>6</v>
+      </c>
+      <c r="B553">
+        <v>12</v>
+      </c>
+      <c r="C553" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>6</v>
+      </c>
+      <c r="B554">
+        <v>13</v>
+      </c>
+      <c r="C554" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>6</v>
+      </c>
+      <c r="B555">
+        <v>14</v>
+      </c>
+      <c r="C555" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>6</v>
+      </c>
+      <c r="B556">
+        <v>15</v>
+      </c>
+      <c r="C556" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>6</v>
+      </c>
+      <c r="B557">
+        <v>16</v>
+      </c>
+      <c r="C557" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>6</v>
+      </c>
+      <c r="B558">
+        <v>17</v>
+      </c>
+      <c r="C558" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>6</v>
+      </c>
+      <c r="B559">
+        <v>18</v>
+      </c>
+      <c r="C559" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>6</v>
+      </c>
+      <c r="B560">
+        <v>19</v>
+      </c>
+      <c r="C560" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>6</v>
+      </c>
+      <c r="B561">
+        <v>20</v>
+      </c>
+      <c r="C561" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>6</v>
+      </c>
+      <c r="B562">
+        <v>21</v>
+      </c>
+      <c r="C562" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>6</v>
+      </c>
+      <c r="B563">
+        <v>22</v>
+      </c>
+      <c r="C563" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>6</v>
+      </c>
+      <c r="B564">
+        <v>23</v>
+      </c>
+      <c r="C564" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>6</v>
+      </c>
+      <c r="B565">
+        <v>24</v>
+      </c>
+      <c r="C565" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>6</v>
+      </c>
+      <c r="B566">
+        <v>25</v>
+      </c>
+      <c r="C566" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>6</v>
+      </c>
+      <c r="B567">
+        <v>26</v>
+      </c>
+      <c r="C567" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>6</v>
+      </c>
+      <c r="B568">
+        <v>27</v>
+      </c>
+      <c r="C568" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>6</v>
+      </c>
+      <c r="B569">
+        <v>28</v>
+      </c>
+      <c r="C569" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>6</v>
+      </c>
+      <c r="B570">
+        <v>29</v>
+      </c>
+      <c r="C570" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>6</v>
+      </c>
+      <c r="B571">
+        <v>30</v>
+      </c>
+      <c r="C571" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>6</v>
+      </c>
+      <c r="B572">
+        <v>31</v>
+      </c>
+      <c r="C572" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>6</v>
+      </c>
+      <c r="B573">
+        <v>32</v>
+      </c>
+      <c r="C573" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>6</v>
+      </c>
+      <c r="B574">
+        <v>33</v>
+      </c>
+      <c r="C574" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>6</v>
+      </c>
+      <c r="B575">
+        <v>34</v>
+      </c>
+      <c r="C575" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>6</v>
+      </c>
+      <c r="B576">
+        <v>35</v>
+      </c>
+      <c r="C576" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>6</v>
+      </c>
+      <c r="B577">
+        <v>36</v>
+      </c>
+      <c r="C577" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>6</v>
+      </c>
+      <c r="B578">
+        <v>37</v>
+      </c>
+      <c r="C578" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>6</v>
+      </c>
+      <c r="B579">
+        <v>38</v>
+      </c>
+      <c r="C579" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>6</v>
+      </c>
+      <c r="B580">
+        <v>39</v>
+      </c>
+      <c r="C580" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>6</v>
+      </c>
+      <c r="B581">
+        <v>40</v>
+      </c>
+      <c r="C581" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>6</v>
+      </c>
+      <c r="B582">
+        <v>41</v>
+      </c>
+      <c r="C582" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>6</v>
+      </c>
+      <c r="B583">
+        <v>42</v>
+      </c>
+      <c r="C583" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>6</v>
+      </c>
+      <c r="B584">
+        <v>43</v>
+      </c>
+      <c r="C584" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>6</v>
+      </c>
+      <c r="B585">
+        <v>44</v>
+      </c>
+      <c r="C585" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>6</v>
+      </c>
+      <c r="B586">
+        <v>45</v>
+      </c>
+      <c r="C586" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>6</v>
+      </c>
+      <c r="B587">
+        <v>46</v>
+      </c>
+      <c r="C587" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>6</v>
+      </c>
+      <c r="B588">
+        <v>47</v>
+      </c>
+      <c r="C588" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>6</v>
+      </c>
+      <c r="B589">
+        <v>48</v>
+      </c>
+      <c r="C589" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>6</v>
+      </c>
+      <c r="B590">
+        <v>49</v>
+      </c>
+      <c r="C590" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>6</v>
+      </c>
+      <c r="B591">
+        <v>50</v>
+      </c>
+      <c r="C591" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>6</v>
+      </c>
+      <c r="B592">
+        <v>51</v>
+      </c>
+      <c r="C592" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>6</v>
+      </c>
+      <c r="B593">
+        <v>52</v>
+      </c>
+      <c r="C593" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>6</v>
+      </c>
+      <c r="B594">
+        <v>53</v>
+      </c>
+      <c r="C594" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>6</v>
+      </c>
+      <c r="B595">
+        <v>54</v>
+      </c>
+      <c r="C595" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>6</v>
+      </c>
+      <c r="B596">
+        <v>55</v>
+      </c>
+      <c r="C596" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>6</v>
+      </c>
+      <c r="B597">
+        <v>56</v>
+      </c>
+      <c r="C597" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>6</v>
+      </c>
+      <c r="B598">
+        <v>57</v>
+      </c>
+      <c r="C598" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>6</v>
+      </c>
+      <c r="B599">
+        <v>58</v>
+      </c>
+      <c r="C599" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>6</v>
+      </c>
+      <c r="B600">
+        <v>59</v>
+      </c>
+      <c r="C600" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>6</v>
+      </c>
+      <c r="B601">
+        <v>60</v>
+      </c>
+      <c r="C601" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>6</v>
+      </c>
+      <c r="B602">
+        <v>61</v>
+      </c>
+      <c r="C602" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>6</v>
+      </c>
+      <c r="B603">
+        <v>62</v>
+      </c>
+      <c r="C603" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>6</v>
+      </c>
+      <c r="B604">
+        <v>63</v>
+      </c>
+      <c r="C604" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>6</v>
+      </c>
+      <c r="B605">
+        <v>64</v>
+      </c>
+      <c r="C605" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>6</v>
+      </c>
+      <c r="B606">
+        <v>65</v>
+      </c>
+      <c r="C606" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>6</v>
+      </c>
+      <c r="B607">
+        <v>66</v>
+      </c>
+      <c r="C607" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>6</v>
+      </c>
+      <c r="B608">
+        <v>67</v>
+      </c>
+      <c r="C608" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>6</v>
+      </c>
+      <c r="B609">
+        <v>68</v>
+      </c>
+      <c r="C609" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>6</v>
+      </c>
+      <c r="B610">
+        <v>69</v>
+      </c>
+      <c r="C610" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>6</v>
+      </c>
+      <c r="B611">
+        <v>70</v>
+      </c>
+      <c r="C611" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>6</v>
+      </c>
+      <c r="B612">
+        <v>71</v>
+      </c>
+      <c r="C612" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>6</v>
+      </c>
+      <c r="B613">
+        <v>72</v>
+      </c>
+      <c r="C613" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>6</v>
+      </c>
+      <c r="B614">
+        <v>73</v>
+      </c>
+      <c r="C614" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>6</v>
+      </c>
+      <c r="B615">
+        <v>74</v>
+      </c>
+      <c r="C615" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>6</v>
+      </c>
+      <c r="B616">
+        <v>75</v>
+      </c>
+      <c r="C616" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>6</v>
+      </c>
+      <c r="B617">
+        <v>76</v>
+      </c>
+      <c r="C617" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>6</v>
+      </c>
+      <c r="B618">
+        <v>77</v>
+      </c>
+      <c r="C618" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>6</v>
+      </c>
+      <c r="B619">
+        <v>78</v>
+      </c>
+      <c r="C619" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>6</v>
+      </c>
+      <c r="B620">
+        <v>79</v>
+      </c>
+      <c r="C620" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>6</v>
+      </c>
+      <c r="B621">
+        <v>80</v>
+      </c>
+      <c r="C621" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>6</v>
+      </c>
+      <c r="B622">
+        <v>81</v>
+      </c>
+      <c r="C622" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>6</v>
+      </c>
+      <c r="B623">
+        <v>82</v>
+      </c>
+      <c r="C623" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>6</v>
+      </c>
+      <c r="B624">
+        <v>83</v>
+      </c>
+      <c r="C624" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>6</v>
+      </c>
+      <c r="B625">
+        <v>84</v>
+      </c>
+      <c r="C625" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>6</v>
+      </c>
+      <c r="B626">
+        <v>85</v>
+      </c>
+      <c r="C626" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>6</v>
+      </c>
+      <c r="B627">
+        <v>86</v>
+      </c>
+      <c r="C627" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>6</v>
+      </c>
+      <c r="B628">
+        <v>87</v>
+      </c>
+      <c r="C628" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>6</v>
+      </c>
+      <c r="B629">
+        <v>88</v>
+      </c>
+      <c r="C629" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>6</v>
+      </c>
+      <c r="B630">
+        <v>89</v>
+      </c>
+      <c r="C630" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>6</v>
+      </c>
+      <c r="B631">
+        <v>90</v>
+      </c>
+      <c r="C631" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>6</v>
+      </c>
+      <c r="B632">
+        <v>91</v>
+      </c>
+      <c r="C632" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>6</v>
+      </c>
+      <c r="B633">
+        <v>92</v>
+      </c>
+      <c r="C633" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>6</v>
+      </c>
+      <c r="B634">
+        <v>93</v>
+      </c>
+      <c r="C634" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>6</v>
+      </c>
+      <c r="B635">
+        <v>94</v>
+      </c>
+      <c r="C635" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>6</v>
+      </c>
+      <c r="B636">
+        <v>95</v>
+      </c>
+      <c r="C636" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>6</v>
+      </c>
+      <c r="B637">
+        <v>96</v>
+      </c>
+      <c r="C637" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>6</v>
+      </c>
+      <c r="B638">
+        <v>97</v>
+      </c>
+      <c r="C638" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>6</v>
+      </c>
+      <c r="B639">
+        <v>98</v>
+      </c>
+      <c r="C639" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>6</v>
+      </c>
+      <c r="B640">
+        <v>99</v>
+      </c>
+      <c r="C640" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>6</v>
+      </c>
+      <c r="B641">
+        <v>100</v>
+      </c>
+      <c r="C641" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>6</v>
+      </c>
+      <c r="B642">
+        <v>101</v>
+      </c>
+      <c r="C642" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>6</v>
+      </c>
+      <c r="B643">
+        <v>102</v>
+      </c>
+      <c r="C643" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>6</v>
+      </c>
+      <c r="B644">
+        <v>103</v>
+      </c>
+      <c r="C644" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>6</v>
+      </c>
+      <c r="B645">
+        <v>104</v>
+      </c>
+      <c r="C645" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>6</v>
+      </c>
+      <c r="B646">
+        <v>105</v>
+      </c>
+      <c r="C646" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>6</v>
+      </c>
+      <c r="B647">
+        <v>106</v>
+      </c>
+      <c r="C647" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>6</v>
+      </c>
+      <c r="B648">
+        <v>107</v>
+      </c>
+      <c r="C648" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>6</v>
+      </c>
+      <c r="B649">
+        <v>108</v>
+      </c>
+      <c r="C649" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>6</v>
+      </c>
+      <c r="B650">
+        <v>109</v>
+      </c>
+      <c r="C650" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>6</v>
+      </c>
+      <c r="B651">
+        <v>110</v>
+      </c>
+      <c r="C651" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>6</v>
+      </c>
+      <c r="B652">
+        <v>111</v>
+      </c>
+      <c r="C652" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>6</v>
+      </c>
+      <c r="B653">
+        <v>112</v>
+      </c>
+      <c r="C653" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>6</v>
+      </c>
+      <c r="B654">
+        <v>113</v>
+      </c>
+      <c r="C654" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>6</v>
+      </c>
+      <c r="B655">
+        <v>114</v>
+      </c>
+      <c r="C655" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>6</v>
+      </c>
+      <c r="B656">
+        <v>115</v>
+      </c>
+      <c r="C656" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>6</v>
+      </c>
+      <c r="B657">
+        <v>116</v>
+      </c>
+      <c r="C657" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>6</v>
+      </c>
+      <c r="B658">
+        <v>117</v>
+      </c>
+      <c r="C658" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>6</v>
+      </c>
+      <c r="B659">
+        <v>118</v>
+      </c>
+      <c r="C659" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>6</v>
+      </c>
+      <c r="B660">
+        <v>119</v>
+      </c>
+      <c r="C660" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>6</v>
+      </c>
+      <c r="B661">
+        <v>120</v>
+      </c>
+      <c r="C661" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>6</v>
+      </c>
+      <c r="B662">
+        <v>121</v>
+      </c>
+      <c r="C662" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>6</v>
+      </c>
+      <c r="B663">
+        <v>122</v>
+      </c>
+      <c r="C663" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>6</v>
+      </c>
+      <c r="B664">
+        <v>123</v>
+      </c>
+      <c r="C664" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>6</v>
+      </c>
+      <c r="B665">
+        <v>124</v>
+      </c>
+      <c r="C665" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>6</v>
+      </c>
+      <c r="B666">
+        <v>125</v>
+      </c>
+      <c r="C666" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>6</v>
+      </c>
+      <c r="B667">
+        <v>126</v>
+      </c>
+      <c r="C667" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>6</v>
+      </c>
+      <c r="B668">
+        <v>127</v>
+      </c>
+      <c r="C668" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>6</v>
+      </c>
+      <c r="B669">
+        <v>128</v>
+      </c>
+      <c r="C669" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>6</v>
+      </c>
+      <c r="B670">
+        <v>129</v>
+      </c>
+      <c r="C670" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>6</v>
+      </c>
+      <c r="B671">
+        <v>130</v>
+      </c>
+      <c r="C671" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>6</v>
+      </c>
+      <c r="B672">
+        <v>131</v>
+      </c>
+      <c r="C672" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>6</v>
+      </c>
+      <c r="B673">
+        <v>132</v>
+      </c>
+      <c r="C673" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>6</v>
+      </c>
+      <c r="B674">
+        <v>133</v>
+      </c>
+      <c r="C674" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>6</v>
+      </c>
+      <c r="B675">
+        <v>134</v>
+      </c>
+      <c r="C675" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>6</v>
+      </c>
+      <c r="B676">
+        <v>135</v>
+      </c>
+      <c r="C676" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>6</v>
+      </c>
+      <c r="B677">
+        <v>136</v>
+      </c>
+      <c r="C677" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>6</v>
+      </c>
+      <c r="B678">
+        <v>137</v>
+      </c>
+      <c r="C678" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>6</v>
+      </c>
+      <c r="B679">
+        <v>138</v>
+      </c>
+      <c r="C679" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>6</v>
+      </c>
+      <c r="B680">
+        <v>139</v>
+      </c>
+      <c r="C680" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>6</v>
+      </c>
+      <c r="B681">
+        <v>140</v>
+      </c>
+      <c r="C681" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>6</v>
+      </c>
+      <c r="B682">
+        <v>141</v>
+      </c>
+      <c r="C682" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>6</v>
+      </c>
+      <c r="B683">
+        <v>142</v>
+      </c>
+      <c r="C683" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>6</v>
+      </c>
+      <c r="B684">
+        <v>143</v>
+      </c>
+      <c r="C684" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>6</v>
+      </c>
+      <c r="B685">
+        <v>144</v>
+      </c>
+      <c r="C685" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>6</v>
+      </c>
+      <c r="B686">
+        <v>145</v>
+      </c>
+      <c r="C686" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>6</v>
+      </c>
+      <c r="B687">
+        <v>146</v>
+      </c>
+      <c r="C687" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>6</v>
+      </c>
+      <c r="B688">
+        <v>147</v>
+      </c>
+      <c r="C688" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>6</v>
+      </c>
+      <c r="B689">
+        <v>148</v>
+      </c>
+      <c r="C689" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>6</v>
+      </c>
+      <c r="B690">
+        <v>149</v>
+      </c>
+      <c r="C690" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>6</v>
+      </c>
+      <c r="B691">
+        <v>150</v>
+      </c>
+      <c r="C691" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>6</v>
+      </c>
+      <c r="B692">
+        <v>151</v>
+      </c>
+      <c r="C692" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>6</v>
+      </c>
+      <c r="B693">
+        <v>152</v>
+      </c>
+      <c r="C693" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>6</v>
+      </c>
+      <c r="B694">
+        <v>153</v>
+      </c>
+      <c r="C694" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>6</v>
+      </c>
+      <c r="B695">
+        <v>154</v>
+      </c>
+      <c r="C695" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>6</v>
+      </c>
+      <c r="B696">
+        <v>155</v>
+      </c>
+      <c r="C696" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>6</v>
+      </c>
+      <c r="B697">
+        <v>156</v>
+      </c>
+      <c r="C697" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>6</v>
+      </c>
+      <c r="B698">
+        <v>157</v>
+      </c>
+      <c r="C698" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>6</v>
+      </c>
+      <c r="B699">
+        <v>158</v>
+      </c>
+      <c r="C699" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>6</v>
+      </c>
+      <c r="B700">
+        <v>159</v>
+      </c>
+      <c r="C700" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>6</v>
+      </c>
+      <c r="B701">
+        <v>160</v>
+      </c>
+      <c r="C701" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>6</v>
+      </c>
+      <c r="B702">
+        <v>161</v>
+      </c>
+      <c r="C702" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>6</v>
+      </c>
+      <c r="B703">
+        <v>162</v>
+      </c>
+      <c r="C703" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>6</v>
+      </c>
+      <c r="B704">
+        <v>163</v>
+      </c>
+      <c r="C704" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>6</v>
+      </c>
+      <c r="B705">
+        <v>164</v>
+      </c>
+      <c r="C705" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>6</v>
+      </c>
+      <c r="B706">
+        <v>165</v>
+      </c>
+      <c r="C706" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>6</v>
+      </c>
+      <c r="B707">
+        <v>166</v>
+      </c>
+      <c r="C707" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>6</v>
+      </c>
+      <c r="B708">
+        <v>167</v>
+      </c>
+      <c r="C708" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>6</v>
+      </c>
+      <c r="B709">
+        <v>168</v>
+      </c>
+      <c r="C709" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>6</v>
+      </c>
+      <c r="B710">
+        <v>169</v>
+      </c>
+      <c r="C710" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>6</v>
+      </c>
+      <c r="B711">
+        <v>170</v>
+      </c>
+      <c r="C711" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>6</v>
+      </c>
+      <c r="B712">
+        <v>171</v>
+      </c>
+      <c r="C712" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>6</v>
+      </c>
+      <c r="B713">
+        <v>172</v>
+      </c>
+      <c r="C713" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>6</v>
+      </c>
+      <c r="B714">
+        <v>173</v>
+      </c>
+      <c r="C714" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>6</v>
+      </c>
+      <c r="B715">
+        <v>174</v>
+      </c>
+      <c r="C715" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>6</v>
+      </c>
+      <c r="B716">
+        <v>175</v>
+      </c>
+      <c r="C716" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>6</v>
+      </c>
+      <c r="B717">
+        <v>176</v>
+      </c>
+      <c r="C717" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>6</v>
+      </c>
+      <c r="B718">
+        <v>177</v>
+      </c>
+      <c r="C718" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>6</v>
+      </c>
+      <c r="B719">
+        <v>178</v>
+      </c>
+      <c r="C719" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>6</v>
+      </c>
+      <c r="B720">
+        <v>179</v>
+      </c>
+      <c r="C720" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>6</v>
+      </c>
+      <c r="B721">
+        <v>180</v>
+      </c>
+      <c r="C721" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
